--- a/biology/Biochimie/Clivage_(chimie)/Clivage_(chimie).xlsx
+++ b/biology/Biochimie/Clivage_(chimie)/Clivage_(chimie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clivage d'une liaison chimique ou sa scission ou sa dissociation ou encore sa rupture est l'ouverture de cette liaison. Le clivage d'une liaison est une réaction endothermique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clivage d'une liaison chimique ou sa scission ou sa dissociation ou encore sa rupture est l'ouverture de cette liaison. Le clivage d'une liaison est une réaction endothermique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>En chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En général, un clivage de liaison est soit homolytique (homolyse), soit hétérolytique (hétérolyse), ce qui dépend de la nature du processus :
 en clivage homolytique, les deux électrons dans la liaison covalente clivée sont divisés à parts égales entre les atomes. Ce procédé est également appelé fission homolytique ;
@@ -545,7 +559,9 @@
           <t>En biochimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clivage est ici un processus de décomposition de grosses molécules (en scindant leurs liaisons intramoléculaires) ; c'est la base du catabolisme. 
 Les enzymes qui catalysent ce clivage de liaison sont appelées lyases, à moins qu'elles n'opèrent par hydrolyse ou oxydation/réduction, auquel cas elles sont appelées hydrolases ou oxydoréductases, respectivement.
